--- a/IMPORTANT/GAURI SHANKAR.xlsx
+++ b/IMPORTANT/GAURI SHANKAR.xlsx
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44596</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44596</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44596</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44596</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44596</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44596</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/GAURI SHANKAR.xlsx
+++ b/IMPORTANT/GAURI SHANKAR.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1164,11 +1164,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>133752</v>
+        <v>76200</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1176,15 +1176,19 @@
       <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44629</v>
+      </c>
+      <c r="G6" s="8">
+        <v>57552</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>133752</v>
+        <v>76200</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44609</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1196,11 +1200,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>133752</v>
+        <v>76200</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44609</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1212,11 +1216,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>133752</v>
+        <v>76200</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44609</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1228,11 +1232,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>133752</v>
+        <v>76200</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44609</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1244,11 +1248,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>133752</v>
+        <v>76200</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1260,11 +1264,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>133752</v>
+        <v>76200</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1276,11 +1280,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>133752</v>
+        <v>76200</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1292,11 +1296,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>133752</v>
+        <v>76200</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1308,11 +1312,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>133752</v>
+        <v>76200</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1324,11 +1328,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>133752</v>
+        <v>76200</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1340,11 +1344,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>133752</v>
+        <v>76200</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1356,11 +1360,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>133752</v>
+        <v>76200</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1372,11 +1376,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>133752</v>
+        <v>76200</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1388,11 +1392,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>133752</v>
+        <v>76200</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1404,11 +1408,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>133752</v>
+        <v>76200</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1420,11 +1424,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>133752</v>
+        <v>76200</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44609</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1436,11 +1440,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>133752</v>
+        <v>76200</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1452,11 +1456,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>133752</v>
+        <v>76200</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1468,11 +1472,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>133752</v>
+        <v>76200</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1484,11 +1488,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>133752</v>
+        <v>76200</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1500,11 +1504,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>133752</v>
+        <v>76200</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1516,11 +1520,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>133752</v>
+        <v>76200</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1532,11 +1536,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>133752</v>
+        <v>76200</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1548,11 +1552,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>133752</v>
+        <v>76200</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1564,11 +1568,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>133752</v>
+        <v>76200</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1580,11 +1584,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>133752</v>
+        <v>76200</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1596,11 +1600,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>133752</v>
+        <v>76200</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1612,11 +1616,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>133752</v>
+        <v>76200</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1629,11 +1633,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>133752</v>
+        <v>76200</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44609</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1662,7 +1666,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>50000</v>
+        <v>107552</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1685,7 +1689,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>133752</v>
+        <v>76200</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/GAURI SHANKAR.xlsx
+++ b/IMPORTANT/GAURI SHANKAR.xlsx
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44629</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/GAURI SHANKAR.xlsx
+++ b/IMPORTANT/GAURI SHANKAR.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/GAURI SHANKAR.xlsx
+++ b/IMPORTANT/GAURI SHANKAR.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1164,16 +1164,20 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>76200</v>
+        <v>-5936</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>56</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="7">
+        <v>44633</v>
+      </c>
+      <c r="B6" s="8">
+        <v>49221</v>
+      </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7">
@@ -1184,43 +1188,59 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>76200</v>
+        <v>43285</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44645</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="49">
+        <v>44659</v>
+      </c>
+      <c r="B7" s="16">
+        <v>26392</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>44657</v>
+      </c>
+      <c r="G7" s="16">
+        <v>32136</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>76200</v>
+        <v>69677</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44645</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15">
+        <v>44677</v>
+      </c>
+      <c r="B8" s="16">
+        <v>66000</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="15">
+        <v>44706</v>
+      </c>
+      <c r="G8" s="16">
+        <v>50000</v>
+      </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>76200</v>
+        <v>135677</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44645</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1232,11 +1252,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>76200</v>
+        <v>135677</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1248,11 +1268,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>76200</v>
+        <v>135677</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1264,11 +1284,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>76200</v>
+        <v>135677</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1280,11 +1300,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>76200</v>
+        <v>135677</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1296,11 +1316,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>76200</v>
+        <v>135677</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1312,11 +1332,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>76200</v>
+        <v>135677</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1328,11 +1348,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>76200</v>
+        <v>135677</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1344,11 +1364,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>76200</v>
+        <v>135677</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1360,11 +1380,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>76200</v>
+        <v>135677</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1376,11 +1396,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>76200</v>
+        <v>135677</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1392,11 +1412,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>76200</v>
+        <v>135677</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1408,11 +1428,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>76200</v>
+        <v>135677</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1424,11 +1444,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>76200</v>
+        <v>135677</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1440,11 +1460,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>76200</v>
+        <v>135677</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1456,11 +1476,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>76200</v>
+        <v>135677</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1472,11 +1492,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>76200</v>
+        <v>135677</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1488,11 +1508,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>76200</v>
+        <v>135677</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,11 +1524,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>76200</v>
+        <v>135677</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1520,11 +1540,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>76200</v>
+        <v>135677</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1536,11 +1556,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>76200</v>
+        <v>135677</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,11 +1572,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>76200</v>
+        <v>135677</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1568,11 +1588,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>76200</v>
+        <v>135677</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1584,11 +1604,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>76200</v>
+        <v>135677</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1600,11 +1620,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>76200</v>
+        <v>135677</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1616,11 +1636,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>76200</v>
+        <v>135677</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1633,11 +1653,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>76200</v>
+        <v>135677</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1658,7 +1678,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>183752</v>
+        <v>325365</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1666,7 +1686,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>107552</v>
+        <v>189688</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1689,7 +1709,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>76200</v>
+        <v>135677</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/GAURI SHANKAR.xlsx
+++ b/IMPORTANT/GAURI SHANKAR.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1164,11 +1164,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-5936</v>
+        <v>-81436</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>43285</v>
+        <v>-32215</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1212,11 +1212,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>69677</v>
+        <v>-5823</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1236,11 +1236,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>135677</v>
+        <v>60177</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1248,15 +1248,19 @@
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="15">
+        <v>44714</v>
+      </c>
+      <c r="G9" s="16">
+        <v>37500</v>
+      </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>135677</v>
+        <v>60177</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1264,15 +1268,19 @@
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
+      <c r="F10" s="15">
+        <v>44714</v>
+      </c>
+      <c r="G10" s="16">
+        <v>38000</v>
+      </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>135677</v>
+        <v>60177</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1284,11 +1292,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>135677</v>
+        <v>60177</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1300,11 +1308,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>135677</v>
+        <v>60177</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1316,11 +1324,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>135677</v>
+        <v>60177</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1332,11 +1340,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>135677</v>
+        <v>60177</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1348,11 +1356,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>135677</v>
+        <v>60177</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1364,11 +1372,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>135677</v>
+        <v>60177</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1380,11 +1388,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>135677</v>
+        <v>60177</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1396,11 +1404,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>135677</v>
+        <v>60177</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1412,11 +1420,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>135677</v>
+        <v>60177</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1428,11 +1436,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>135677</v>
+        <v>60177</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1444,11 +1452,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>135677</v>
+        <v>60177</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1460,11 +1468,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>135677</v>
+        <v>60177</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1476,11 +1484,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>135677</v>
+        <v>60177</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1492,11 +1500,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>135677</v>
+        <v>60177</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1508,11 +1516,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>135677</v>
+        <v>60177</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1524,11 +1532,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>135677</v>
+        <v>60177</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1540,11 +1548,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>135677</v>
+        <v>60177</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1556,11 +1564,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>135677</v>
+        <v>60177</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1572,11 +1580,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>135677</v>
+        <v>60177</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1588,11 +1596,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>135677</v>
+        <v>60177</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1604,11 +1612,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>135677</v>
+        <v>60177</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1620,11 +1628,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>135677</v>
+        <v>60177</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1636,11 +1644,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>135677</v>
+        <v>60177</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1653,11 +1661,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>135677</v>
+        <v>60177</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1686,7 +1694,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>189688</v>
+        <v>265188</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1709,7 +1717,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>135677</v>
+        <v>60177</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/GAURI SHANKAR.xlsx
+++ b/IMPORTANT/GAURI SHANKAR.xlsx
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44714</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44714</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44714</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/GAURI SHANKAR.xlsx
+++ b/IMPORTANT/GAURI SHANKAR.xlsx
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>131</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>87</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/GAURI SHANKAR.xlsx
+++ b/IMPORTANT/GAURI SHANKAR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>DATE</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t xml:space="preserve">28-01-2022 CASH   </t>
+  </si>
+  <si>
+    <t>adjusted</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1083,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1164,11 +1167,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-81436</v>
+        <v>-141613</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>158</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1188,11 +1191,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-32215</v>
+        <v>-92392</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>114</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1212,11 +1215,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-5823</v>
+        <v>-66000</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>88</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1236,11 +1239,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>60177</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>70</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1256,11 +1259,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>60177</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1276,11 +1279,11 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>60177</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1288,15 +1291,19 @@
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
+      <c r="F11" s="15">
+        <v>44788</v>
+      </c>
+      <c r="G11" s="16">
+        <v>20393</v>
+      </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>60177</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1304,15 +1311,19 @@
       <c r="B12" s="17"/>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
+      <c r="F12" s="15">
+        <v>44789</v>
+      </c>
+      <c r="G12" s="16">
+        <v>20000</v>
+      </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>60177</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1320,15 +1331,19 @@
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="18"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
+      <c r="F13" s="12">
+        <v>44789</v>
+      </c>
+      <c r="G13" s="13">
+        <v>15000</v>
+      </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>60177</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1336,15 +1351,19 @@
       <c r="B14" s="17"/>
       <c r="C14" s="14"/>
       <c r="D14" s="18"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
+      <c r="F14" s="15">
+        <v>44790</v>
+      </c>
+      <c r="G14" s="16">
+        <v>4500</v>
+      </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>60177</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1352,15 +1371,19 @@
       <c r="B15" s="17"/>
       <c r="C15" s="19"/>
       <c r="D15" s="18"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
+      <c r="F15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="16">
+        <v>284</v>
+      </c>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>60177</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1372,11 +1395,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>60177</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1388,11 +1411,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>60177</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1404,11 +1427,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>60177</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1420,11 +1443,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>60177</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1436,11 +1459,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>60177</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1452,11 +1475,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>60177</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1468,11 +1491,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>60177</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1484,11 +1507,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>60177</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1500,11 +1523,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>60177</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1516,11 +1539,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>60177</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1532,11 +1555,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>60177</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1548,11 +1571,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>60177</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1564,11 +1587,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>60177</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1580,11 +1603,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>60177</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1596,11 +1619,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>60177</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1612,11 +1635,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>60177</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1628,11 +1651,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>60177</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1644,11 +1667,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>60177</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1661,11 +1684,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>60177</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1694,7 +1717,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>265188</v>
+        <v>325365</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1717,7 +1740,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>60177</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/GAURI SHANKAR.xlsx
+++ b/IMPORTANT/GAURI SHANKAR.xlsx
@@ -1082,7 +1082,7 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>206</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>162</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>136</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/GAURI SHANKAR.xlsx
+++ b/IMPORTANT/GAURI SHANKAR.xlsx
@@ -1171,7 +1171,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>228</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>184</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>140</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/GAURI SHANKAR.xlsx
+++ b/IMPORTANT/GAURI SHANKAR.xlsx
@@ -1082,7 +1082,7 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>249</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>205</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>179</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>161</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/GAURI SHANKAR.xlsx
+++ b/IMPORTANT/GAURI SHANKAR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -52,12 +52,6 @@
   </si>
   <si>
     <t xml:space="preserve">CUSTOMER NAME - GAURI SHANKAR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">28-01-2022 CASH   </t>
-  </si>
-  <si>
-    <t>adjusted</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1152,98 +1146,78 @@
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
-        <v>44589</v>
+        <v>44987</v>
       </c>
       <c r="B5" s="8">
-        <v>183752</v>
+        <v>191553</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
+      <c r="F5" s="7">
+        <v>44987</v>
       </c>
       <c r="G5" s="8">
         <v>50000</v>
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-141613</v>
+        <v>100455</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>367</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7">
-        <v>44633</v>
-      </c>
-      <c r="B6" s="8">
-        <v>49221</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7">
-        <v>44629</v>
+        <v>45015</v>
       </c>
       <c r="G6" s="8">
-        <v>57552</v>
+        <v>41098</v>
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-92392</v>
+        <v>100455</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>323</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49">
-        <v>44659</v>
-      </c>
-      <c r="B7" s="16">
-        <v>26392</v>
-      </c>
+      <c r="A7" s="49"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49">
-        <v>44657</v>
-      </c>
-      <c r="G7" s="16">
-        <v>32136</v>
-      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-66000</v>
+        <v>100455</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>297</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15">
-        <v>44677</v>
-      </c>
-      <c r="B8" s="16">
-        <v>66000</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
-      <c r="F8" s="15">
-        <v>44706</v>
-      </c>
-      <c r="G8" s="16">
-        <v>50000</v>
-      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>100455</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>279</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1251,19 +1225,15 @@
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="15">
-        <v>44714</v>
-      </c>
-      <c r="G9" s="16">
-        <v>37500</v>
-      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>100455</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1271,19 +1241,15 @@
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
-      <c r="F10" s="15">
-        <v>44714</v>
-      </c>
-      <c r="G10" s="16">
-        <v>38000</v>
-      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100455</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1291,19 +1257,15 @@
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
-      <c r="F11" s="15">
-        <v>44788</v>
-      </c>
-      <c r="G11" s="16">
-        <v>20393</v>
-      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100455</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1311,19 +1273,15 @@
       <c r="B12" s="17"/>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
-      <c r="F12" s="15">
-        <v>44789</v>
-      </c>
-      <c r="G12" s="16">
-        <v>20000</v>
-      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100455</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1331,19 +1289,15 @@
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="18"/>
-      <c r="F13" s="12">
-        <v>44789</v>
-      </c>
-      <c r="G13" s="13">
-        <v>15000</v>
-      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100455</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1351,19 +1305,15 @@
       <c r="B14" s="17"/>
       <c r="C14" s="14"/>
       <c r="D14" s="18"/>
-      <c r="F14" s="15">
-        <v>44790</v>
-      </c>
-      <c r="G14" s="16">
-        <v>4500</v>
-      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100455</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1371,19 +1321,15 @@
       <c r="B15" s="17"/>
       <c r="C15" s="19"/>
       <c r="D15" s="18"/>
-      <c r="F15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="16">
-        <v>284</v>
-      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100455</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1395,11 +1341,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100455</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1411,11 +1357,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100455</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1427,11 +1373,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100455</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1443,11 +1389,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100455</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1459,11 +1405,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100455</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1475,11 +1421,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100455</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1491,11 +1437,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100455</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1507,11 +1453,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100455</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1523,11 +1469,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100455</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1539,11 +1485,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100455</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1555,11 +1501,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100455</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1571,11 +1517,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100455</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1587,11 +1533,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100455</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1603,11 +1549,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100455</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,11 +1565,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100455</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1635,11 +1581,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100455</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1651,11 +1597,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100455</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1667,11 +1613,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>100455</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1684,11 +1630,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100455</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1709,7 +1655,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>325365</v>
+        <v>191553</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1717,7 +1663,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>325365</v>
+        <v>91098</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1740,7 +1686,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>100455</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/GAURI SHANKAR.xlsx
+++ b/IMPORTANT/GAURI SHANKAR.xlsx
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45020</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/GAURI SHANKAR.xlsx
+++ b/IMPORTANT/GAURI SHANKAR.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>100455</v>
+        <v>2455</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>57</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1181,11 +1181,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>100455</v>
+        <v>2455</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1193,15 +1193,19 @@
       <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>45069</v>
+      </c>
+      <c r="G7" s="16">
+        <v>49000</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>100455</v>
+        <v>2455</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1209,15 +1213,19 @@
       <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="15">
+        <v>45091</v>
+      </c>
+      <c r="G8" s="16">
+        <v>49000</v>
+      </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>100455</v>
+        <v>2455</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1229,11 +1237,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>100455</v>
+        <v>2455</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1245,11 +1253,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>100455</v>
+        <v>2455</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,11 +1269,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>100455</v>
+        <v>2455</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1277,11 +1285,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>100455</v>
+        <v>2455</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1293,11 +1301,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>100455</v>
+        <v>2455</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1309,11 +1317,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>100455</v>
+        <v>2455</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1325,11 +1333,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>100455</v>
+        <v>2455</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1341,11 +1349,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>100455</v>
+        <v>2455</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1357,11 +1365,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>100455</v>
+        <v>2455</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1373,11 +1381,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>100455</v>
+        <v>2455</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1389,11 +1397,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>100455</v>
+        <v>2455</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,11 +1413,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>100455</v>
+        <v>2455</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,11 +1429,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>100455</v>
+        <v>2455</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,11 +1445,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>100455</v>
+        <v>2455</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,11 +1461,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>100455</v>
+        <v>2455</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,11 +1477,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>100455</v>
+        <v>2455</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,11 +1493,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>100455</v>
+        <v>2455</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,11 +1509,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>100455</v>
+        <v>2455</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,11 +1525,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>100455</v>
+        <v>2455</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,11 +1541,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>100455</v>
+        <v>2455</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,11 +1557,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>100455</v>
+        <v>2455</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,11 +1573,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>100455</v>
+        <v>2455</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,11 +1589,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>100455</v>
+        <v>2455</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,11 +1605,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>100455</v>
+        <v>2455</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,11 +1621,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>100455</v>
+        <v>2455</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,11 +1638,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>100455</v>
+        <v>2455</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1663,7 +1671,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>91098</v>
+        <v>189098</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1686,7 +1694,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>100455</v>
+        <v>2455</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/GAURI SHANKAR.xlsx
+++ b/IMPORTANT/GAURI SHANKAR.xlsx
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>104</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
